--- a/biology/Botanique/Clintonia_udensis/Clintonia_udensis.xlsx
+++ b/biology/Botanique/Clintonia_udensis/Clintonia_udensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clintonia udensis est une espèce de plante à fleurs de la famille des Liliaceae . C'est la seule espèce de Clintonia originaire d'Asie. Il préfère les habitats peu boisés, notamment les forêts alpines de l' Himalaya .
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clintonia udensis est une plante herbacée vivace qui se propage au moyen de rhizomes souterrains , formant des colonies sur le sol des forêts tempérées . Il a 3 à 5 feuilles ovoïdes à elliptiques , chaque feuille de 8 à 25 cm (3 à 10 pouces ) de long et de 3 à 16 cm (1 à 6 pouces ) de large. Les marges des feuilles sont pubescentes quand elles sont jeunes. La tige de pubescent (techniquement, un paysage ) est de 10 à 20 cm (4 à 8) de long. Pendant la fructification, la tige s'allonge jusqu'à 60 cm (24 po) de long. L' inflorescence est de 3 à -12 à fleurs, bref terminales racemes avec densément pubescent pédoncules . Lesles tépales sont blancs, parfois bleuâtres, chaque tépale de 7 à 12 mm (0,3 à 0,5 po) de long. Les baies sont bleu foncé, presque noires, jusqu'à 12 mm (0,5 po) de diamètre. 
 </t>
